--- a/OSI_Model.xlsx
+++ b/OSI_Model.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Данные</t>
   </si>
   <si>
-    <t xml:space="preserve">Доступ к сетевым службам</t>
+    <t xml:space="preserve">Обеспечивает взаимодействие пользовательских приложений с сетью</t>
   </si>
   <si>
     <t xml:space="preserve">HTTP, FTP, SMTP, RDP, SNMP, DHCP</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">6. Представительский</t>
   </si>
   <si>
-    <t xml:space="preserve">Представление и шифрование данных</t>
+    <t xml:space="preserve">Преобразование запросов приложений в формат передачи по сети и обратно</t>
   </si>
   <si>
     <t xml:space="preserve">ASCII, EBCDIC</t>
@@ -64,10 +64,10 @@
     <t xml:space="preserve">5. Сеансовый</t>
   </si>
   <si>
-    <t xml:space="preserve">Управление сеансом связи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPC, PAP</t>
+    <t xml:space="preserve">Создание, поддержание, завершение сеанса связи.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPC – Remote Procedure Call, PAP – Password Authentication Protocol</t>
   </si>
   <si>
     <t xml:space="preserve">4. Транспортный</t>
@@ -76,10 +76,10 @@
     <t xml:space="preserve">Сегменты, Дейтаграммы</t>
   </si>
   <si>
-    <t xml:space="preserve">Прямая связь между конечными пунктами и надёжность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCP, UDP, SCTP, PORTS </t>
+    <t xml:space="preserve">Обеспечивает надёжность передачи данных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCP, UDP</t>
   </si>
   <si>
     <t xml:space="preserve">3. Сетевой</t>
@@ -88,10 +88,10 @@
     <t xml:space="preserve">Пакеты</t>
   </si>
   <si>
-    <t xml:space="preserve">Определение маршрута и логическая адресация</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPv4, IPv6, IPsec, AppleTalk</t>
+    <t xml:space="preserve">Определение пути передачи данных, трансляция логических адресов и имён в физические</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPv4, IPv6, Ipsec</t>
   </si>
   <si>
     <t xml:space="preserve">2. Канальный</t>
@@ -100,10 +100,10 @@
     <t xml:space="preserve">Биты, Фреймы</t>
   </si>
   <si>
-    <t xml:space="preserve">Физическая адресация</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPP, IEEE 802.22, Ethernet, DSL, ARP, L2TP, Network Cards </t>
+    <t xml:space="preserve">Обеспечения взаимодействия сетей на физическом уровне, преобразует биты информации в фреймы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPP - Point-to-Point Protocol, Ethernet, DSL</t>
   </si>
   <si>
     <t xml:space="preserve">1. Физический</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Биты</t>
   </si>
   <si>
-    <t xml:space="preserve">Работа со средой передачи, сигналами и двоичными данными</t>
+    <t xml:space="preserve">Определение метода передачи данных от устройства к устройству</t>
   </si>
   <si>
     <t xml:space="preserve">USB, кабель</t>
@@ -130,6 +130,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -237,17 +238,17 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.8979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.6785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.89285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.984693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.8112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/OSI_Model.xlsx
+++ b/OSI_Model.xlsx
@@ -100,10 +100,10 @@
     <t xml:space="preserve">Биты, Фреймы</t>
   </si>
   <si>
-    <t xml:space="preserve">Обеспечения взаимодействия сетей на физическом уровне, преобразует биты информации в фреймы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPP - Point-to-Point Protocol, Ethernet, DSL</t>
+    <t xml:space="preserve">Физическая адресация (по MAC), организация битов в фреймы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPP - Point-to-Point Protocol, Ethernet, DSL, ARP - Address Resolution Protocol</t>
   </si>
   <si>
     <t xml:space="preserve">1. Физический</t>
@@ -238,17 +238,16 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.984693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.8112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.4897959183674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/OSI_Model.xlsx
+++ b/OSI_Model.xlsx
@@ -20,9 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Протокол передачи данных – набор соглашений, задающих единообразный способ передачи сообщений и обработки ошибок.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сетевой пакет – особым образом оформленный блок данных, предназначенный для передачи по сети в пакетном режиме.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сетевая модель – модель взаимодействия сетевых протоколов.</t>
   </si>
   <si>
     <t xml:space="preserve">Модель OSI (Модель взаимодействия открытых систем)</t>
@@ -197,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,6 +214,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -235,22 +245,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -260,145 +271,167 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
+    <row r="11" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="0.765277777777778" bottom="0.765277777777778" header="0.5" footer="0.5"/>

--- a/OSI_Model.xlsx
+++ b/OSI_Model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Преобразование запросов приложений в формат передачи по сети и обратно</t>
   </si>
   <si>
-    <t xml:space="preserve">ASCII, EBCDIC</t>
+    <t xml:space="preserve">ASCII, EBCDIC, TLS, SSL</t>
   </si>
   <si>
     <t xml:space="preserve">5. Сеансовый</t>
@@ -216,7 +216,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -248,17 +248,16 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
